--- a/data/Countries_and_ISOs_April_21_2015.xlsx
+++ b/data/Countries_and_ISOs_April_21_2015.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="923">
   <si>
     <t>Andorra</t>
   </si>
@@ -2572,9 +2572,6 @@
     <t>Western Sahara</t>
   </si>
   <si>
-    <t>Bolivia;Bolivia (Plurinational State of)</t>
-  </si>
-  <si>
     <t>Bonaire, Sint Eustatius and Saba;Bonaire;Sint Eustatius;Saba</t>
   </si>
   <si>
@@ -2602,9 +2599,6 @@
     <t>Congo (the Democratic Republic of the);Congo (the Republic of the);The Democratic Republic of the Congo;The Republic of the Congo</t>
   </si>
   <si>
-    <t>Congo (the);The Congo</t>
-  </si>
-  <si>
     <t>Cook Islands (the);The Cook Islands</t>
   </si>
   <si>
@@ -2789,6 +2783,12 @@
   </si>
   <si>
     <t>Yemen, Democratic;Democratic Yemen;The Democratic Yemen, Democratic Yemen (the)</t>
+  </si>
+  <si>
+    <t>Bolivia;Bolivia (Plurinational State of);Plurinational State of Bolivia;The Plurinational State of Bolivia</t>
+  </si>
+  <si>
+    <t>Congo (the);The Congo;Congo</t>
   </si>
 </sst>
 </file>
@@ -5584,7 +5584,7 @@
       <c r="C135" s="1"/>
       <c r="D135" s="4"/>
       <c r="E135" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5631,7 +5631,7 @@
       <c r="C138" s="1"/>
       <c r="D138" s="4"/>
       <c r="E138" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -7997,7 +7997,7 @@
       <c r="C278" s="1"/>
       <c r="D278" s="4"/>
       <c r="E278" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -8132,10 +8132,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:XFD82"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8157,15 +8157,15 @@
         <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>850</v>
+        <v>921</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30">
@@ -8173,268 +8173,268 @@
         <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45">
+      <c r="A6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" ht="30">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>727</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>171</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>854</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="45">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="60">
       <c r="A10" s="1" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>727</v>
+        <v>183</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45">
       <c r="A12" s="1" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="30">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="60">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>183</v>
+        <v>88</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="45">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="60">
       <c r="A18" s="1" t="s">
-        <v>90</v>
+        <v>222</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="30">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>225</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>112</v>
+        <v>785</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30">
+    <row r="21" spans="1:2" ht="45">
       <c r="A21" s="1" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B23" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="60">
-      <c r="A22" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30">
-      <c r="A23" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" ht="60">
       <c r="A24" s="1" t="s">
-        <v>785</v>
+        <v>295</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="45">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>243</v>
+        <v>298</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" ht="30">
       <c r="A26" s="1" t="s">
-        <v>249</v>
+        <v>319</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" ht="60">
       <c r="A27" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="B27" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="60">
+        <v>358</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30">
       <c r="A28" s="1" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30">
       <c r="A29" s="1" t="s">
-        <v>298</v>
+        <v>370</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="30">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="45">
       <c r="A30" s="1" t="s">
-        <v>319</v>
+        <v>400</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="60">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30">
       <c r="A31" s="1" t="s">
-        <v>358</v>
+        <v>421</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="30">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="60">
       <c r="A32" s="1" t="s">
-        <v>361</v>
+        <v>439</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30">
       <c r="A33" s="1" t="s">
-        <v>370</v>
+        <v>442</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="45">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30">
       <c r="A34" s="1" t="s">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="30">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="60">
+        <v>755</v>
+      </c>
+      <c r="B35" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="30">
+        <v>805</v>
+      </c>
+      <c r="B36" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>442</v>
+        <v>487</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>875</v>
@@ -8442,7 +8442,7 @@
     </row>
     <row r="38" spans="1:2" ht="30">
       <c r="A38" s="1" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>876</v>
@@ -8450,322 +8450,290 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>755</v>
+        <v>808</v>
       </c>
       <c r="B39" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30">
       <c r="A40" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="B40" t="s">
-        <v>911</v>
+        <v>514</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="30">
+        <v>814</v>
+      </c>
+      <c r="B41" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>499</v>
+        <v>529</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30">
       <c r="A43" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="B43" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="30">
+        <v>553</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>514</v>
+        <v>52</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30">
       <c r="A45" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="B45" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>560</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30">
       <c r="A46" s="1" t="s">
-        <v>529</v>
+        <v>563</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="30">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>569</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>913</v>
+        <v>888</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="30">
       <c r="A49" s="1" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
       <c r="A50" s="1" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30">
       <c r="A51" s="1" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30">
       <c r="A52" s="1" t="s">
-        <v>569</v>
+        <v>605</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30">
       <c r="A53" s="1" t="s">
-        <v>572</v>
+        <v>614</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="30">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="60">
       <c r="A54" s="1" t="s">
-        <v>575</v>
+        <v>623</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="30">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>584</v>
+        <v>635</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="30">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>605</v>
+        <v>651</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="30">
       <c r="A57" s="1" t="s">
-        <v>614</v>
+        <v>654</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="45">
+      <c r="A58" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="30">
+      <c r="A59" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="30">
+      <c r="A60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="60">
+      <c r="A61" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>914</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="60">
-      <c r="A58" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="30">
-      <c r="A61" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="45">
       <c r="A62" s="1" t="s">
-        <v>660</v>
+        <v>706</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="30">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="30">
+        <v>811</v>
+      </c>
+      <c r="B63" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="45">
       <c r="A64" s="1" t="s">
-        <v>3</v>
+        <v>709</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="60">
+    <row r="65" spans="1:2" ht="90">
       <c r="A65" s="1" t="s">
-        <v>703</v>
+        <v>730</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="45">
+    <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="B66" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B66" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" ht="60">
       <c r="A67" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="B67" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="45">
+        <v>721</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="90">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>918</v>
+        <v>828</v>
+      </c>
+      <c r="B69" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="B70" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="60">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="75">
       <c r="A72" s="1" t="s">
-        <v>724</v>
+        <v>844</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="30">
       <c r="A73" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="B73" t="s">
-        <v>902</v>
+        <v>735</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="B74" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="75">
-      <c r="A76" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="B76" s="1" t="s">
         <v>920</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="30">
-      <c r="A77" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="B78" t="s">
-        <v>922</v>
       </c>
     </row>
   </sheetData>
